--- a/10 Project Management/Project Report.xlsx
+++ b/10 Project Management/Project Report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A48E093-C781-4BC6-8459-7A23D23103D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C607ED-9C2A-4C9F-9E36-080D98DF167B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -84,13 +84,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +524,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,111 +534,127 @@
     <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10 Project Management/Project Report.xlsx
+++ b/10 Project Management/Project Report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C607ED-9C2A-4C9F-9E36-080D98DF167B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE5B67-37B1-4A51-9CD3-E80BFAFCB839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,6 +181,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +528,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,28 +637,22 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
